--- a/Risk Driver Simulation/Runfiles/FXinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/FXinput.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4A802-01D9-4037-89D4-60959DF1542F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="9540"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -111,22 +117,16 @@
     <t>DomFor28</t>
   </si>
   <si>
-    <t>GBPEUR</t>
-  </si>
-  <si>
-    <t>USDEUR</t>
-  </si>
-  <si>
-    <t>JPYEUR</t>
-  </si>
-  <si>
-    <t>TestVolatility</t>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>EURUSD VOL 8Y COTERMINAL 31122019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,6 +167,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +251,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +303,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,16 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -553,46 +590,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.2</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>0.09</v>
+        <v>1.1212599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -601,24 +620,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Risk Driver Simulation/Runfiles/FXinput.xlsx
+++ b/Risk Driver Simulation/Runfiles/FXinput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4A802-01D9-4037-89D4-60959DF1542F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5334DF-85F2-4402-9055-37F02E8C0FCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,104 +33,110 @@
     <t>Volatility</t>
   </si>
   <si>
-    <t>DomFor1</t>
-  </si>
-  <si>
-    <t>DomFor2</t>
-  </si>
-  <si>
-    <t>DomFor3</t>
-  </si>
-  <si>
-    <t>DomFor4</t>
-  </si>
-  <si>
-    <t>DomFor5</t>
-  </si>
-  <si>
-    <t>DomFor6</t>
-  </si>
-  <si>
-    <t>DomFor7</t>
-  </si>
-  <si>
-    <t>DomFor8</t>
-  </si>
-  <si>
-    <t>DomFor9</t>
-  </si>
-  <si>
-    <t>DomFor10</t>
-  </si>
-  <si>
-    <t>DomFor11</t>
-  </si>
-  <si>
-    <t>DomFor12</t>
-  </si>
-  <si>
-    <t>DomFor13</t>
-  </si>
-  <si>
-    <t>DomFor14</t>
-  </si>
-  <si>
-    <t>DomFor15</t>
-  </si>
-  <si>
-    <t>DomFor16</t>
-  </si>
-  <si>
-    <t>DomFor17</t>
-  </si>
-  <si>
-    <t>DomFor18</t>
-  </si>
-  <si>
-    <t>DomFor19</t>
-  </si>
-  <si>
-    <t>DomFor20</t>
-  </si>
-  <si>
-    <t>DomFor21</t>
-  </si>
-  <si>
-    <t>DomFor22</t>
-  </si>
-  <si>
-    <t>DomFor23</t>
-  </si>
-  <si>
-    <t>DomFor24</t>
-  </si>
-  <si>
-    <t>DomFor25</t>
-  </si>
-  <si>
-    <t>DomFor26</t>
-  </si>
-  <si>
-    <t>DomFor27</t>
-  </si>
-  <si>
-    <t>DomFor28</t>
-  </si>
-  <si>
     <t>EURUSD</t>
   </si>
   <si>
     <t>EURUSD VOL 8Y COTERMINAL 31122019</t>
+  </si>
+  <si>
+    <t>domfor1</t>
+  </si>
+  <si>
+    <t>domfor2</t>
+  </si>
+  <si>
+    <t>domfor3</t>
+  </si>
+  <si>
+    <t>domfor4</t>
+  </si>
+  <si>
+    <t>domfor5</t>
+  </si>
+  <si>
+    <t>domfor6</t>
+  </si>
+  <si>
+    <t>domfor7</t>
+  </si>
+  <si>
+    <t>domfor8</t>
+  </si>
+  <si>
+    <t>domfor9</t>
+  </si>
+  <si>
+    <t>domfor10</t>
+  </si>
+  <si>
+    <t>domfor11</t>
+  </si>
+  <si>
+    <t>domfor12</t>
+  </si>
+  <si>
+    <t>domfor13</t>
+  </si>
+  <si>
+    <t>domfor14</t>
+  </si>
+  <si>
+    <t>domfor15</t>
+  </si>
+  <si>
+    <t>domfor16</t>
+  </si>
+  <si>
+    <t>domfor17</t>
+  </si>
+  <si>
+    <t>domfor18</t>
+  </si>
+  <si>
+    <t>domfor19</t>
+  </si>
+  <si>
+    <t>domfor20</t>
+  </si>
+  <si>
+    <t>domfor21</t>
+  </si>
+  <si>
+    <t>domfor22</t>
+  </si>
+  <si>
+    <t>domfor23</t>
+  </si>
+  <si>
+    <t>domfor24</t>
+  </si>
+  <si>
+    <t>domfor25</t>
+  </si>
+  <si>
+    <t>domfor26</t>
+  </si>
+  <si>
+    <t>domfor27</t>
+  </si>
+  <si>
+    <t>domfor28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,95 +505,95 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AC1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -595,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -611,10 +617,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
